--- a/portal/src/main/resources/template/导入学生数据模版.xlsx
+++ b/portal/src/main/resources/template/导入学生数据模版.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\forteach\lineEdu\portal\src\main\resources\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A712F3-7F8E-4139-B0F4-0B67679DEECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -238,14 +244,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,352 +267,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -635,255 +311,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -896,62 +330,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1209,19 +602,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -1233,7 +626,7 @@
     <col min="34" max="34" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +648,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1455,7 +848,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/portal/src/main/resources/template/导入学生数据模版.xlsx
+++ b/portal/src/main/resources/template/导入学生数据模版.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\forteach\lineEdu\portal\src\main\resources\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A712F3-7F8E-4139-B0F4-0B67679DEECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -244,8 +238,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -267,28 +267,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -311,9 +641,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -327,24 +899,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -602,19 +1218,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -626,7 +1242,7 @@
     <col min="34" max="34" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,208 +1264,208 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>